--- a/oefeningen/15-oefening-c128/sprite.xlsx
+++ b/oefeningen/15-oefening-c128/sprite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00b08bc3e1e83696/module/oefeningen/15-oefening-c128/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BD43145C-D80E-410F-A7FF-5B420E03905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A960C36C-DD63-4EA6-824B-7A7416514FDA}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="8_{BD43145C-D80E-410F-A7FF-5B420E03905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A4B1D95-7835-4D31-8D0B-18F47BFE9CAF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{46CBF0CD-D746-4A73-BFDF-EC6E66306CF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46CBF0CD-D746-4A73-BFDF-EC6E66306CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="7">
   <si>
     <t>Kopieer de binaire representatie en paste in programma.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -62,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -85,25 +103,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -138,8 +255,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,17 +559,17 @@
   <dimension ref="A2:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA50" sqref="AA50:AC70"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="26" width="3.26953125" customWidth="1"/>
-    <col min="27" max="29" width="11.36328125" customWidth="1"/>
+    <col min="2" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -528,7 +649,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -556,7 +677,6 @@
       <c r="W4" s="2"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="4"/>
       <c r="AA4" s="1" t="str">
         <f>"0b" &amp; IF($B4="x","1","0") &amp; IF($C4="x","1","0") &amp; IF($D4="x","1","0") &amp; IF($E4="x","1","0") &amp; IF($F4="x","1","0") &amp; IF($G4="x","1","0") &amp; IF($H4="x","1","0") &amp; IF($I4="x","1","0") &amp; ","</f>
         <v>0b00000000,</v>
@@ -570,7 +690,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -598,7 +718,6 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="4"/>
       <c r="AA5" s="1" t="str">
         <f t="shared" ref="AA5:AA24" si="0">"0b" &amp; IF($B5="x","1","0") &amp; IF($C5="x","1","0") &amp; IF($D5="x","1","0") &amp; IF($E5="x","1","0") &amp; IF($F5="x","1","0") &amp; IF($G5="x","1","0") &amp; IF($H5="x","1","0") &amp; IF($I5="x","1","0") &amp; ","</f>
         <v>0b00000000,</v>
@@ -612,7 +731,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -640,7 +759,6 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="4"/>
       <c r="AA6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0b00000000,</v>
@@ -654,7 +772,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -682,7 +800,6 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="4"/>
       <c r="AA7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0b00000000,</v>
@@ -696,11 +813,13 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -724,10 +843,9 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="4"/>
       <c r="AA8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b10000000,</v>
       </c>
       <c r="AB8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -738,12 +856,16 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -766,10 +888,9 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="4"/>
       <c r="AA9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11000000,</v>
       </c>
       <c r="AB9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -780,13 +901,19 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -808,10 +935,9 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="4"/>
       <c r="AA10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11100000,</v>
       </c>
       <c r="AB10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -822,14 +948,22 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -839,7 +973,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -850,29 +986,38 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="4"/>
       <c r="AA11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11110000,</v>
       </c>
       <c r="AB11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -881,8 +1026,12 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -892,155 +1041,301 @@
       <c r="W12" s="2"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="4"/>
       <c r="AA12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11111000,</v>
       </c>
       <c r="AB12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b00000110,</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="4"/>
       <c r="AA13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111110,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="4"/>
       <c r="AA15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111110,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1049,8 +1344,12 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1060,28 +1359,35 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="4"/>
       <c r="AA16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11111000,</v>
       </c>
       <c r="AB16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b00000110,</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1091,7 +1397,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1102,27 +1410,32 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="4"/>
       <c r="AA17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11110000,</v>
       </c>
       <c r="AB17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1144,10 +1457,9 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="4"/>
       <c r="AA18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11100000,</v>
       </c>
       <c r="AB18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1158,12 +1470,16 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1186,10 +1502,9 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="4"/>
       <c r="AA19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b11000000,</v>
       </c>
       <c r="AB19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1200,11 +1515,13 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1228,10 +1545,9 @@
       <c r="W20" s="2"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="4"/>
       <c r="AA20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b10000000,</v>
       </c>
       <c r="AB20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1242,7 +1558,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1270,7 +1586,6 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="4"/>
       <c r="AA21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0b00000000,</v>
@@ -1284,7 +1599,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1312,7 +1627,6 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="4"/>
       <c r="AA22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0b00000000,</v>
@@ -1326,7 +1640,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1354,7 +1668,6 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="4"/>
       <c r="AA23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0b00000000,</v>
@@ -1368,7 +1681,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1396,7 +1709,6 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="4"/>
       <c r="AA24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0b00000000,</v>
@@ -1410,889 +1722,1832 @@
         <v>0b00000000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA27" s="1" t="str">
         <f>"0b" &amp; IF($B27="x","1","0") &amp; IF($C27="x","1","0") &amp; IF($D27="x","1","0") &amp; IF($E27="x","1","0") &amp; IF($F27="x","1","0") &amp; IF($G27="x","1","0") &amp; IF($H27="x","1","0") &amp; IF($I27="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB27" s="1" t="str">
         <f>"0b" &amp; IF($J27="x","1","0") &amp; IF($K27="x","1","0") &amp; IF($L27="x","1","0") &amp; IF($M27="x","1","0") &amp; IF($N27="x","1","0") &amp; IF($O27="x","1","0") &amp; IF($P27="x","1","0") &amp; IF($Q27="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC27" s="1" t="str">
         <f>"0b" &amp; IF($R27="x","1","0") &amp; IF($S27="x","1","0") &amp; IF($T27="x","1","0") &amp; IF($U27="x","1","0") &amp; IF($V27="x","1","0") &amp; IF($W27="x","1","0") &amp; IF($X27="x","1","0") &amp; IF($Y27="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA28" s="1" t="str">
         <f t="shared" ref="AA28:AA47" si="3">"0b" &amp; IF($B28="x","1","0") &amp; IF($C28="x","1","0") &amp; IF($D28="x","1","0") &amp; IF($E28="x","1","0") &amp; IF($F28="x","1","0") &amp; IF($G28="x","1","0") &amp; IF($H28="x","1","0") &amp; IF($I28="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB28" s="1" t="str">
         <f t="shared" ref="AB28:AB47" si="4">"0b" &amp; IF($J28="x","1","0") &amp; IF($K28="x","1","0") &amp; IF($L28="x","1","0") &amp; IF($M28="x","1","0") &amp; IF($N28="x","1","0") &amp; IF($O28="x","1","0") &amp; IF($P28="x","1","0") &amp; IF($Q28="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" ref="AC28:AC46" si="5">"0b" &amp; IF($R28="x","1","0") &amp; IF($S28="x","1","0") &amp; IF($T28="x","1","0") &amp; IF($U28="x","1","0") &amp; IF($V28="x","1","0") &amp; IF($W28="x","1","0") &amp; IF($X28="x","1","0") &amp; IF($Y28="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="4"/>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="4"/>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="4"/>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="4"/>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="4"/>
+      <c r="N37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11001111,</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="4"/>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11001111,</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="4"/>
+      <c r="N39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11001111,</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="4"/>
+      <c r="O40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11100111,</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="4"/>
+      <c r="O41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b11000111,</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="4"/>
+      <c r="O42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10100111,</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="4"/>
+      <c r="O43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10100111,</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="4"/>
+      <c r="O44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB44" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10100111,</v>
       </c>
       <c r="AC44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="4"/>
+      <c r="O45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB45" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10100111,</v>
       </c>
       <c r="AC45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="4"/>
+      <c r="O46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB46" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10100111,</v>
       </c>
       <c r="AC46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="4"/>
+      <c r="O47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b11111111,</v>
       </c>
       <c r="AB47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10100111,</v>
       </c>
       <c r="AC47" s="1" t="str">
         <f>"0b" &amp; IF($R47="x","1","0") &amp; IF($S47="x","1","0") &amp; IF($T47="x","1","0") &amp; IF($U47="x","1","0") &amp; IF($V47="x","1","0") &amp; IF($W47="x","1","0") &amp; IF($X47="x","1","0") &amp; IF($Y47="x","1","0")</f>
-        <v>0b00000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11111111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2320,7 +3575,6 @@
       <c r="W50" s="2"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="4"/>
       <c r="AA50" s="1" t="str">
         <f>"0b" &amp; IF($B50="x","1","0") &amp; IF($C50="x","1","0") &amp; IF($D50="x","1","0") &amp; IF($E50="x","1","0") &amp; IF($F50="x","1","0") &amp; IF($G50="x","1","0") &amp; IF($H50="x","1","0") &amp; IF($I50="x","1","0") &amp; ","</f>
         <v>0b00000000,</v>
@@ -2334,7 +3588,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2362,7 +3616,6 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="4"/>
       <c r="AA51" s="1" t="str">
         <f t="shared" ref="AA51:AA70" si="6">"0b" &amp; IF($B51="x","1","0") &amp; IF($C51="x","1","0") &amp; IF($D51="x","1","0") &amp; IF($E51="x","1","0") &amp; IF($F51="x","1","0") &amp; IF($G51="x","1","0") &amp; IF($H51="x","1","0") &amp; IF($I51="x","1","0") &amp; ","</f>
         <v>0b00000000,</v>
@@ -2376,7 +3629,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2404,7 +3657,6 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
-      <c r="Z52" s="4"/>
       <c r="AA52" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2418,7 +3670,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2446,7 +3698,6 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
-      <c r="Z53" s="4"/>
       <c r="AA53" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2460,7 +3711,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2488,7 +3739,6 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="4"/>
       <c r="AA54" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2502,7 +3752,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2530,7 +3780,6 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
-      <c r="Z55" s="4"/>
       <c r="AA55" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2544,7 +3793,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2572,7 +3821,6 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
-      <c r="Z56" s="4"/>
       <c r="AA56" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2586,7 +3834,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2614,7 +3862,6 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="4"/>
       <c r="AA57" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2628,7 +3875,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -2656,7 +3903,6 @@
       <c r="W58" s="2"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="Z58" s="4"/>
       <c r="AA58" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2670,7 +3916,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2698,7 +3944,6 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="4"/>
       <c r="AA59" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2712,7 +3957,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -2740,7 +3985,6 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="Z60" s="4"/>
       <c r="AA60" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2754,7 +3998,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -2782,7 +4026,6 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-      <c r="Z61" s="4"/>
       <c r="AA61" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2796,7 +4039,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -2824,7 +4067,6 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="4"/>
       <c r="AA62" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2838,7 +4080,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
@@ -2866,7 +4108,6 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-      <c r="Z63" s="4"/>
       <c r="AA63" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2880,7 +4121,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -2908,7 +4149,6 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
-      <c r="Z64" s="4"/>
       <c r="AA64" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2922,7 +4162,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -2950,7 +4190,6 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-      <c r="Z65" s="4"/>
       <c r="AA65" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -2964,7 +4203,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -2992,7 +4231,6 @@
       <c r="W66" s="2"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="4"/>
       <c r="AA66" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -3006,7 +4244,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3034,7 +4272,6 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
-      <c r="Z67" s="4"/>
       <c r="AA67" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -3048,7 +4285,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -3076,7 +4313,6 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
-      <c r="Z68" s="4"/>
       <c r="AA68" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -3090,7 +4326,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19</v>
       </c>
@@ -3118,7 +4354,6 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
-      <c r="Z69" s="4"/>
       <c r="AA69" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -3132,7 +4367,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -3160,7 +4395,6 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
-      <c r="Z70" s="4"/>
       <c r="AA70" s="1" t="str">
         <f t="shared" si="6"/>
         <v>0b00000000,</v>
@@ -3176,18 +4410,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:X24">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>B4="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:X47">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>B27="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:X70">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B50="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>Y14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oefeningen/15-oefening-c128/sprite.xlsx
+++ b/oefeningen/15-oefening-c128/sprite.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00b08bc3e1e83696/module/oefeningen/15-oefening-c128/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leerling\Documents\module\oefeningen\15-oefening-c128\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BD43145C-D80E-410F-A7FF-5B420E03905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A960C36C-DD63-4EA6-824B-7A7416514FDA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{46CBF0CD-D746-4A73-BFDF-EC6E66306CF4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="2">
   <si>
     <t>Kopieer de binaire representatie en paste in programma.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,21 +436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF822978-8D57-45FE-B142-36F363A9A8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA50" sqref="AA50:AC70"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="26" width="3.26953125" customWidth="1"/>
-    <col min="27" max="29" width="11.36328125" customWidth="1"/>
+    <col min="2" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -528,7 +530,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -570,7 +572,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -612,7 +614,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -654,7 +656,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -696,7 +698,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -707,9 +709,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -719,26 +727,30 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b00000001,</v>
       </c>
       <c r="AB8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b11000000,</v>
       </c>
       <c r="AC8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b00011000,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -748,11 +760,15 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -760,27 +776,33 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b00000010,</v>
       </c>
       <c r="AB9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b00100000,</v>
       </c>
       <c r="AC9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b00111000,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -790,20 +812,32 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -811,18 +845,18 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b00000010,</v>
       </c>
       <c r="AB10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b10010000,</v>
       </c>
       <c r="AC10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01110000,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -831,20 +865,36 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -853,18 +903,18 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b00001111,</v>
       </c>
       <c r="AC11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11100000,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -874,9 +924,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -885,7 +941,9 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -895,18 +953,18 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0b00000000,</v>
+        <v>0b00000011,</v>
       </c>
       <c r="AB12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b10000000,</v>
       </c>
       <c r="AC12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -919,7 +977,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -927,7 +987,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -941,14 +1003,14 @@
       </c>
       <c r="AB13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b01000000,</v>
       </c>
       <c r="AC13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -961,15 +1023,29 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -983,14 +1059,14 @@
       </c>
       <c r="AB14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b01011111,</v>
       </c>
       <c r="AC14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1003,15 +1079,23 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1025,14 +1109,14 @@
       </c>
       <c r="AB15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b01010001,</v>
       </c>
       <c r="AC15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1045,15 +1129,23 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1067,14 +1159,14 @@
       </c>
       <c r="AB16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b01010001,</v>
       </c>
       <c r="AC16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1087,15 +1179,27 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1109,14 +1213,14 @@
       </c>
       <c r="AB17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0b00000000,</v>
+        <v>0b01110001,</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11000000,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1158,7 +1262,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1200,7 +1304,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1242,7 +1346,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1284,7 +1388,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1326,7 +1430,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1368,7 +1472,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1410,7 +1514,7 @@
         <v>0b00000000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1452,7 +1556,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1465,10 +1569,18 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1487,14 +1599,14 @@
       </c>
       <c r="AB28" s="1" t="str">
         <f t="shared" ref="AB28:AB47" si="4">"0b" &amp; IF($J28="x","1","0") &amp; IF($K28="x","1","0") &amp; IF($L28="x","1","0") &amp; IF($M28="x","1","0") &amp; IF($N28="x","1","0") &amp; IF($O28="x","1","0") &amp; IF($P28="x","1","0") &amp; IF($Q28="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b01111000,</v>
       </c>
       <c r="AC28" s="1" t="str">
         <f t="shared" ref="AC28:AC46" si="5">"0b" &amp; IF($R28="x","1","0") &amp; IF($S28="x","1","0") &amp; IF($T28="x","1","0") &amp; IF($U28="x","1","0") &amp; IF($V28="x","1","0") &amp; IF($W28="x","1","0") &amp; IF($X28="x","1","0") &amp; IF($Y28="x","1","0") &amp; ","</f>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1506,12 +1618,16 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1529,14 +1645,14 @@
       </c>
       <c r="AB29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC29" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1544,20 +1660,40 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -1567,18 +1703,18 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b00001111,</v>
       </c>
       <c r="AB30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000111,</v>
       </c>
       <c r="AC30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11000000,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1586,20 +1722,28 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -1609,18 +1753,18 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b00001000,</v>
       </c>
       <c r="AB31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1628,20 +1772,28 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -1651,18 +1803,18 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b00001000,</v>
       </c>
       <c r="AB32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b01000000,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1671,18 +1823,26 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -1693,18 +1853,18 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1714,16 +1874,24 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -1735,18 +1903,18 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b00000010,</v>
       </c>
       <c r="AB34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000101,</v>
       </c>
       <c r="AC34" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1757,14 +1925,22 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="1"/>
+      <c r="O35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -1777,18 +1953,18 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0b00000000,</v>
+        <v>0b00000001,</v>
       </c>
       <c r="AB35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000110,</v>
       </c>
       <c r="AC35" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1800,12 +1976,16 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1823,14 +2003,14 @@
       </c>
       <c r="AB36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC36" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1842,12 +2022,16 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -1865,14 +2049,14 @@
       </c>
       <c r="AB37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC37" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -1884,12 +2068,16 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -1907,14 +2095,14 @@
       </c>
       <c r="AB38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC38" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -1926,12 +2114,16 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -1949,14 +2141,14 @@
       </c>
       <c r="AB39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC39" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -1968,12 +2160,20 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -1991,14 +2191,14 @@
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10110100,</v>
       </c>
       <c r="AC40" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2010,12 +2210,16 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2033,14 +2237,14 @@
       </c>
       <c r="AB41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b10000100,</v>
       </c>
       <c r="AC41" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
@@ -2053,10 +2257,14 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2075,14 +2283,14 @@
       </c>
       <c r="AB42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b01001000,</v>
       </c>
       <c r="AC42" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
@@ -2096,8 +2304,12 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="1"/>
@@ -2117,14 +2329,14 @@
       </c>
       <c r="AB43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0b00000000,</v>
+        <v>0b00110000,</v>
       </c>
       <c r="AC43" s="1" t="str">
         <f t="shared" si="5"/>
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -2166,7 +2378,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -2208,7 +2420,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
@@ -2250,7 +2462,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20</v>
       </c>
@@ -2292,7 +2504,7 @@
         <v>0b00000000</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2301,18 +2513,40 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="M50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S50" s="1"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -2323,18 +2557,18 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="1" t="str">
         <f>"0b" &amp; IF($B50="x","1","0") &amp; IF($C50="x","1","0") &amp; IF($D50="x","1","0") &amp; IF($E50="x","1","0") &amp; IF($F50="x","1","0") &amp; IF($G50="x","1","0") &amp; IF($H50="x","1","0") &amp; IF($I50="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b00000111,</v>
       </c>
       <c r="AB50" s="1" t="str">
         <f>"0b" &amp; IF($J50="x","1","0") &amp; IF($K50="x","1","0") &amp; IF($L50="x","1","0") &amp; IF($M50="x","1","0") &amp; IF($N50="x","1","0") &amp; IF($O50="x","1","0") &amp; IF($P50="x","1","0") &amp; IF($Q50="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b11011111,</v>
       </c>
       <c r="AC50" s="1" t="str">
         <f>"0b" &amp; IF($R50="x","1","0") &amp; IF($S50="x","1","0") &amp; IF($T50="x","1","0") &amp; IF($U50="x","1","0") &amp; IF($V50="x","1","0") &amp; IF($W50="x","1","0") &amp; IF($X50="x","1","0") &amp; IF($Y50="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2343,18 +2577,26 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -2365,18 +2607,18 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="1" t="str">
         <f t="shared" ref="AA51:AA70" si="6">"0b" &amp; IF($B51="x","1","0") &amp; IF($C51="x","1","0") &amp; IF($D51="x","1","0") &amp; IF($E51="x","1","0") &amp; IF($F51="x","1","0") &amp; IF($G51="x","1","0") &amp; IF($H51="x","1","0") &amp; IF($I51="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB51" s="1" t="str">
         <f t="shared" ref="AB51:AB70" si="7">"0b" &amp; IF($J51="x","1","0") &amp; IF($K51="x","1","0") &amp; IF($L51="x","1","0") &amp; IF($M51="x","1","0") &amp; IF($N51="x","1","0") &amp; IF($O51="x","1","0") &amp; IF($P51="x","1","0") &amp; IF($Q51="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC51" s="1" t="str">
         <f t="shared" ref="AC51:AC69" si="8">"0b" &amp; IF($R51="x","1","0") &amp; IF($S51="x","1","0") &amp; IF($T51="x","1","0") &amp; IF($U51="x","1","0") &amp; IF($V51="x","1","0") &amp; IF($W51="x","1","0") &amp; IF($X51="x","1","0") &amp; IF($Y51="x","1","0") &amp; ","</f>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2385,18 +2627,26 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="R52" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -2407,18 +2657,18 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB52" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC52" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2427,18 +2677,30 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -2449,18 +2711,18 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB53" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010110,</v>
       </c>
       <c r="AC53" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2469,18 +2731,30 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="O54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -2491,18 +2765,18 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB54" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010110,</v>
       </c>
       <c r="AC54" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2511,18 +2785,32 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -2533,18 +2821,18 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB55" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010111,</v>
       </c>
       <c r="AC55" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2553,19 +2841,35 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="O56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -2575,18 +2879,18 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB56" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010111,</v>
       </c>
       <c r="AC56" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11000000,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2595,19 +2899,33 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -2617,18 +2935,18 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB57" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010011,</v>
       </c>
       <c r="AC57" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11000000,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -2637,19 +2955,33 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="M58" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -2659,18 +2991,18 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB58" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010011,</v>
       </c>
       <c r="AC58" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11000000,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2679,19 +3011,29 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -2701,18 +3043,18 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB59" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC59" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b11000000,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -2721,18 +3063,26 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="R60" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -2743,18 +3093,18 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB60" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC60" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -2763,18 +3113,26 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
+      <c r="R61" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -2785,18 +3143,18 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB61" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC61" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -2805,18 +3163,26 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -2827,18 +3193,18 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB62" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC62" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
@@ -2847,18 +3213,26 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="R63" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -2869,18 +3243,18 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB63" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC63" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -2889,18 +3263,26 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="R64" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -2911,18 +3293,18 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB64" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC64" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -2931,18 +3313,26 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
+      <c r="R65" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -2953,18 +3343,18 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000100,</v>
       </c>
       <c r="AB65" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b01010000,</v>
       </c>
       <c r="AC65" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -2973,18 +3363,40 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="G66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="M66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S66" s="1"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -2995,18 +3407,18 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0b00000000,</v>
+        <v>0b00000111,</v>
       </c>
       <c r="AB66" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0b00000000,</v>
+        <v>0b11011111,</v>
       </c>
       <c r="AC66" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0b00000000,</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+        <v>0b10000000,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3048,7 +3460,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -3090,7 +3502,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>19</v>
       </c>
@@ -3132,7 +3544,7 @@
         <v>0b00000000,</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
